--- a/log_training_runs.xlsx
+++ b/log_training_runs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,100 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>600</v>
+      </c>
+      <c r="B4" t="n">
+        <v>64</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>256 256</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>model_v1</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>log_training_runs.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>600</v>
+      </c>
+      <c r="B5" t="n">
+        <v>64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>256 256</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>model_v2_100khz</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>log_training_runs.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
